--- a/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1981506194288634</v>
+        <v>0.394890212994997</v>
       </c>
       <c r="C2">
-        <v>0.2277061224295617</v>
+        <v>0.4079149820070181</v>
       </c>
       <c r="D2">
-        <v>0.09102432532658856</v>
+        <v>0.2433766280851557</v>
       </c>
       <c r="E2">
-        <v>0.301702378722125</v>
+        <v>0.4933321681029484</v>
       </c>
       <c r="F2">
-        <v>0.2360979592736958</v>
+        <v>0.3068621425284427</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1347271498375545</v>
+        <v>0.1644430722176581</v>
       </c>
       <c r="C3">
-        <v>0.1824298664130021</v>
+        <v>0.2400847867952391</v>
       </c>
       <c r="D3">
-        <v>0.0540059831647199</v>
+        <v>0.09290660822557242</v>
       </c>
       <c r="E3">
-        <v>0.2323918741365969</v>
+        <v>0.3048058533322029</v>
       </c>
       <c r="F3">
-        <v>0.1970849050108855</v>
+        <v>0.2705243554966509</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1487210129200346</v>
+        <v>0.17209220167078</v>
       </c>
       <c r="C4">
-        <v>0.1968997697213676</v>
+        <v>0.1992204944551758</v>
       </c>
       <c r="D4">
-        <v>0.06187628447511123</v>
+        <v>0.06134042005773921</v>
       </c>
       <c r="E4">
-        <v>0.2487494411553747</v>
+        <v>0.2476699821491075</v>
       </c>
       <c r="F4">
-        <v>0.2082612296423983</v>
+        <v>0.1951144100731962</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1366007203623696</v>
+        <v>0.269664002978933</v>
       </c>
       <c r="C5">
-        <v>0.1770162580713473</v>
+        <v>0.269664002978933</v>
       </c>
       <c r="D5">
-        <v>0.04795908896268884</v>
+        <v>0.09111259386596202</v>
       </c>
       <c r="E5">
-        <v>0.2189956368576526</v>
+        <v>0.3018486274044691</v>
       </c>
       <c r="F5">
-        <v>0.1795251107090247</v>
+        <v>0.1918015608035556</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.1040663899787111</v>
-      </c>
-      <c r="C6">
-        <v>0.1533618026834758</v>
-      </c>
-      <c r="D6">
-        <v>0.03418603272089628</v>
-      </c>
-      <c r="E6">
-        <v>0.1848946530349006</v>
-      </c>
-      <c r="F6">
-        <v>0.1610942415609747</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.1187374696627089</v>
-      </c>
-      <c r="C7">
-        <v>0.1538721959401118</v>
-      </c>
-      <c r="D7">
-        <v>0.03787077486297412</v>
-      </c>
-      <c r="E7">
-        <v>0.1946041491412095</v>
-      </c>
-      <c r="F7">
-        <v>0.1665359406291926</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.1086067388606567</v>
-      </c>
-      <c r="C8">
-        <v>0.1283000776883693</v>
-      </c>
-      <c r="D8">
-        <v>0.0233757724614473</v>
-      </c>
-      <c r="E8">
-        <v>0.1528913747123993</v>
-      </c>
-      <c r="F8">
-        <v>0.1242596675541475</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>-0.02756215956575819</v>
-      </c>
-      <c r="C9">
-        <v>0.02756215956575819</v>
-      </c>
-      <c r="D9">
-        <v>0.0007596726399283158</v>
-      </c>
-      <c r="E9">
-        <v>0.02756215956575819</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.394890212994997</v>
+        <v>0.3349553228780944</v>
       </c>
       <c r="C2">
-        <v>0.4079149820070181</v>
+        <v>0.3367524377135537</v>
       </c>
       <c r="D2">
-        <v>0.2433766280851557</v>
+        <v>0.1614313307467032</v>
       </c>
       <c r="E2">
-        <v>0.4933321681029484</v>
+        <v>0.4017851798495101</v>
       </c>
       <c r="F2">
-        <v>0.3068621425284427</v>
+        <v>0.2302686848532658</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1644430722176581</v>
+        <v>0.1821895727347061</v>
       </c>
       <c r="C3">
-        <v>0.2400847867952391</v>
+        <v>0.1995134267841846</v>
       </c>
       <c r="D3">
-        <v>0.09290660822557242</v>
+        <v>0.06522829055202861</v>
       </c>
       <c r="E3">
-        <v>0.3048058533322029</v>
+        <v>0.2553982978643918</v>
       </c>
       <c r="F3">
-        <v>0.2705243554966509</v>
+        <v>0.1886656364482292</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.17209220167078</v>
+        <v>0.2077349899393594</v>
       </c>
       <c r="C4">
-        <v>0.1992204944551758</v>
+        <v>0.2383528991286697</v>
       </c>
       <c r="D4">
-        <v>0.06134042005773921</v>
+        <v>0.09280927092432688</v>
       </c>
       <c r="E4">
-        <v>0.2476699821491075</v>
+        <v>0.3046461405045645</v>
       </c>
       <c r="F4">
-        <v>0.1951144100731962</v>
+        <v>0.2441035310172005</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.269664002978933</v>
+        <v>0.1283418663009961</v>
       </c>
       <c r="C5">
-        <v>0.269664002978933</v>
+        <v>0.1283418663009961</v>
       </c>
       <c r="D5">
-        <v>0.09111259386596202</v>
+        <v>0.02714726664902342</v>
       </c>
       <c r="E5">
-        <v>0.3018486274044691</v>
+        <v>0.1647642760097692</v>
       </c>
       <c r="F5">
-        <v>0.1918015608035556</v>
+        <v>0.146120717240237</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3349553228780944</v>
+        <v>0.1121240238528402</v>
       </c>
       <c r="C2">
-        <v>0.3367524377135537</v>
+        <v>0.7618801882577865</v>
       </c>
       <c r="D2">
-        <v>0.1614313307467032</v>
+        <v>3.665753451068926</v>
       </c>
       <c r="E2">
-        <v>0.4017851798495101</v>
+        <v>1.914615745017503</v>
       </c>
       <c r="F2">
-        <v>0.2302686848532658</v>
+        <v>1.932450120671928</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1821895727347061</v>
+        <v>0.2384546409039757</v>
       </c>
       <c r="C3">
-        <v>0.1995134267841846</v>
+        <v>0.7169237981258901</v>
       </c>
       <c r="D3">
-        <v>0.06522829055202861</v>
+        <v>3.429598611108179</v>
       </c>
       <c r="E3">
-        <v>0.2553982978643918</v>
+        <v>1.851917549759756</v>
       </c>
       <c r="F3">
-        <v>0.1886656364482292</v>
+        <v>1.857253653004148</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2077349899393594</v>
+        <v>0.1554256882402988</v>
       </c>
       <c r="C4">
-        <v>0.2383528991286697</v>
+        <v>0.746261807642007</v>
       </c>
       <c r="D4">
-        <v>0.09280927092432688</v>
+        <v>3.542524738013336</v>
       </c>
       <c r="E4">
-        <v>0.3046461405045645</v>
+        <v>1.882159594193153</v>
       </c>
       <c r="F4">
-        <v>0.2441035310172005</v>
+        <v>1.897416690034527</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1283418663009961</v>
+        <v>0.2282236696078792</v>
       </c>
       <c r="C5">
-        <v>0.1283418663009961</v>
+        <v>0.7489212578072509</v>
       </c>
       <c r="D5">
-        <v>0.02714726664902342</v>
+        <v>3.600547596828088</v>
       </c>
       <c r="E5">
-        <v>0.1647642760097692</v>
+        <v>1.897510895048586</v>
       </c>
       <c r="F5">
-        <v>0.146120717240237</v>
+        <v>1.906029573040004</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.2046491862038776</v>
+      </c>
+      <c r="C6">
+        <v>0.7536088930238598</v>
+      </c>
+      <c r="D6">
+        <v>3.651661730967382</v>
+      </c>
+      <c r="E6">
+        <v>1.910932162837651</v>
+      </c>
+      <c r="F6">
+        <v>1.922972664121156</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.2392227887939334</v>
+      </c>
+      <c r="C7">
+        <v>0.7909065342463171</v>
+      </c>
+      <c r="D7">
+        <v>3.777102677640282</v>
+      </c>
+      <c r="E7">
+        <v>1.943476955778041</v>
+      </c>
+      <c r="F7">
+        <v>1.95265767950657</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.2155957076965697</v>
+      </c>
+      <c r="C8">
+        <v>0.7869099249525766</v>
+      </c>
+      <c r="D8">
+        <v>3.856332724670826</v>
+      </c>
+      <c r="E8">
+        <v>1.963754751660916</v>
+      </c>
+      <c r="F8">
+        <v>1.976749783912624</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.239545290171405</v>
+      </c>
+      <c r="C9">
+        <v>0.8122047914116975</v>
+      </c>
+      <c r="D9">
+        <v>3.974152750272352</v>
+      </c>
+      <c r="E9">
+        <v>1.993527714949645</v>
+      </c>
+      <c r="F9">
+        <v>2.004954792540174</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.2295130447590046</v>
+      </c>
+      <c r="C10">
+        <v>0.80090761193645</v>
+      </c>
+      <c r="D10">
+        <v>4.057843671499801</v>
+      </c>
+      <c r="E10">
+        <v>2.01440901296132</v>
+      </c>
+      <c r="F10">
+        <v>2.028155615889948</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.189254522310732</v>
+      </c>
+      <c r="C11">
+        <v>0.7743474122443053</v>
+      </c>
+      <c r="D11">
+        <v>3.997164790338612</v>
+      </c>
+      <c r="E11">
+        <v>1.999291071939904</v>
+      </c>
+      <c r="F11">
+        <v>2.017767317389937</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1121240238528402</v>
+        <v>0.0935887046539458</v>
       </c>
       <c r="C2">
-        <v>0.7618801882577865</v>
+        <v>0.9633568397822009</v>
       </c>
       <c r="D2">
-        <v>3.665753451068926</v>
+        <v>4.680461315292987</v>
       </c>
       <c r="E2">
-        <v>1.914615745017503</v>
+        <v>2.163437384185867</v>
       </c>
       <c r="F2">
-        <v>1.932450120671928</v>
+        <v>2.191226136823886</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2384546409039757</v>
+        <v>0.1801871629257656</v>
       </c>
       <c r="C3">
-        <v>0.7169237981258901</v>
+        <v>0.926508908720455</v>
       </c>
       <c r="D3">
-        <v>3.429598611108179</v>
+        <v>4.517135635143278</v>
       </c>
       <c r="E3">
-        <v>1.851917549759756</v>
+        <v>2.125355413841007</v>
       </c>
       <c r="F3">
-        <v>1.857253653004148</v>
+        <v>2.147743373686913</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1554256882402988</v>
+        <v>0.2352243557214495</v>
       </c>
       <c r="C4">
-        <v>0.746261807642007</v>
+        <v>0.873084372529863</v>
       </c>
       <c r="D4">
-        <v>3.542524738013336</v>
+        <v>4.374556468617144</v>
       </c>
       <c r="E4">
-        <v>1.882159594193153</v>
+        <v>2.091544039368319</v>
       </c>
       <c r="F4">
-        <v>1.897416690034527</v>
+        <v>2.108616140758171</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2282236696078792</v>
+        <v>0.1761038177183508</v>
       </c>
       <c r="C5">
-        <v>0.7489212578072509</v>
+        <v>0.918841548698121</v>
       </c>
       <c r="D5">
-        <v>3.600547596828088</v>
+        <v>4.561172687284334</v>
       </c>
       <c r="E5">
-        <v>1.897510895048586</v>
+        <v>2.135690213323162</v>
       </c>
       <c r="F5">
-        <v>1.906029573040004</v>
+        <v>2.160425354518692</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2046491862038776</v>
+        <v>0.2382491768315642</v>
       </c>
       <c r="C6">
-        <v>0.7536088930238598</v>
+        <v>0.9330133540749047</v>
       </c>
       <c r="D6">
-        <v>3.651661730967382</v>
+        <v>4.689726382363714</v>
       </c>
       <c r="E6">
-        <v>1.910932162837651</v>
+        <v>2.165577609406718</v>
       </c>
       <c r="F6">
-        <v>1.922972664121156</v>
+        <v>2.185805075505592</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2392227887939334</v>
+        <v>0.2167218967521913</v>
       </c>
       <c r="C7">
-        <v>0.7909065342463171</v>
+        <v>0.9364529417776732</v>
       </c>
       <c r="D7">
-        <v>3.777102677640282</v>
+        <v>4.7812919825397</v>
       </c>
       <c r="E7">
-        <v>1.943476955778041</v>
+        <v>2.186616560474127</v>
       </c>
       <c r="F7">
-        <v>1.95265767950657</v>
+        <v>2.210665899271447</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2155957076965697</v>
+        <v>0.2578528310586296</v>
       </c>
       <c r="C8">
-        <v>0.7869099249525766</v>
+        <v>0.985525993686524</v>
       </c>
       <c r="D8">
-        <v>3.856332724670826</v>
+        <v>4.976590512716229</v>
       </c>
       <c r="E8">
-        <v>1.963754751660916</v>
+        <v>2.230827315754456</v>
       </c>
       <c r="F8">
-        <v>1.976749783912624</v>
+        <v>2.252503609595107</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.239545290171405</v>
+        <v>0.2218826356104003</v>
       </c>
       <c r="C9">
-        <v>0.8122047914116975</v>
+        <v>0.9820920796201497</v>
       </c>
       <c r="D9">
-        <v>3.974152750272352</v>
+        <v>5.119605115971289</v>
       </c>
       <c r="E9">
-        <v>1.993527714949645</v>
+        <v>2.262654440247403</v>
       </c>
       <c r="F9">
-        <v>2.004954792540174</v>
+        <v>2.290243145950139</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2295130447590046</v>
+        <v>0.2514602257437938</v>
       </c>
       <c r="C10">
-        <v>0.80090761193645</v>
+        <v>1.021614200504279</v>
       </c>
       <c r="D10">
-        <v>4.057843671499801</v>
+        <v>5.321885787980542</v>
       </c>
       <c r="E10">
-        <v>2.01440901296132</v>
+        <v>2.306921279103503</v>
       </c>
       <c r="F10">
-        <v>2.028155615889948</v>
+        <v>2.33376575473015</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.189254522310732</v>
+        <v>0.2366041340794119</v>
       </c>
       <c r="C11">
-        <v>0.7743474122443053</v>
+        <v>1.012053285505367</v>
       </c>
       <c r="D11">
-        <v>3.997164790338612</v>
+        <v>5.483661848752136</v>
       </c>
       <c r="E11">
-        <v>1.999291071939904</v>
+        <v>2.341721983659063</v>
       </c>
       <c r="F11">
-        <v>2.017767317389937</v>
+        <v>2.372489310826974</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0935887046539458</v>
+        <v>-0.1653664247801546</v>
       </c>
       <c r="C2">
-        <v>0.9633568397822009</v>
+        <v>1.120513518117024</v>
       </c>
       <c r="D2">
-        <v>4.680461315292987</v>
+        <v>9.67144629664304</v>
       </c>
       <c r="E2">
-        <v>2.163437384185867</v>
+        <v>3.109894901221429</v>
       </c>
       <c r="F2">
-        <v>2.191226136823886</v>
+        <v>3.139811074079776</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1801871629257656</v>
+        <v>0.01719828832093468</v>
       </c>
       <c r="C3">
-        <v>0.926508908720455</v>
+        <v>1.063375132475499</v>
       </c>
       <c r="D3">
-        <v>4.517135635143278</v>
+        <v>6.205273630094869</v>
       </c>
       <c r="E3">
-        <v>2.125355413841007</v>
+        <v>2.491038664913668</v>
       </c>
       <c r="F3">
-        <v>2.147743373686913</v>
+        <v>2.519126847305234</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2352243557214495</v>
+        <v>0.005100588602229281</v>
       </c>
       <c r="C4">
-        <v>0.873084372529863</v>
+        <v>0.9255207531993044</v>
       </c>
       <c r="D4">
-        <v>4.374556468617144</v>
+        <v>4.773114308188849</v>
       </c>
       <c r="E4">
-        <v>2.091544039368319</v>
+        <v>2.184745822330106</v>
       </c>
       <c r="F4">
-        <v>2.108616140758171</v>
+        <v>2.209997815720953</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1761038177183508</v>
+        <v>0.0498243245536589</v>
       </c>
       <c r="C5">
-        <v>0.918841548698121</v>
+        <v>0.9581495051347919</v>
       </c>
       <c r="D5">
-        <v>4.561172687284334</v>
+        <v>5.307203266713742</v>
       </c>
       <c r="E5">
-        <v>2.135690213323162</v>
+        <v>2.303736805000463</v>
       </c>
       <c r="F5">
-        <v>2.160425354518692</v>
+        <v>2.330455680691624</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2382491768315642</v>
+        <v>0.0885671167821773</v>
       </c>
       <c r="C6">
-        <v>0.9330133540749047</v>
+        <v>0.9573066994189174</v>
       </c>
       <c r="D6">
-        <v>4.689726382363714</v>
+        <v>5.181437973596104</v>
       </c>
       <c r="E6">
-        <v>2.165577609406718</v>
+        <v>2.276277218090122</v>
       </c>
       <c r="F6">
-        <v>2.185805075505592</v>
+        <v>2.302124899960172</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2167218967521913</v>
+        <v>0.1065348192791066</v>
       </c>
       <c r="C7">
-        <v>0.9364529417776732</v>
+        <v>0.929811024553358</v>
       </c>
       <c r="D7">
-        <v>4.7812919825397</v>
+        <v>4.72585632215702</v>
       </c>
       <c r="E7">
-        <v>2.186616560474127</v>
+        <v>2.173903475814191</v>
       </c>
       <c r="F7">
-        <v>2.210665899271447</v>
+        <v>2.198265070640741</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2578528310586296</v>
+        <v>0.1420065762956791</v>
       </c>
       <c r="C8">
-        <v>0.985525993686524</v>
+        <v>0.9765351640082575</v>
       </c>
       <c r="D8">
-        <v>4.976590512716229</v>
+        <v>4.879971543114854</v>
       </c>
       <c r="E8">
-        <v>2.230827315754456</v>
+        <v>2.209065762514745</v>
       </c>
       <c r="F8">
-        <v>2.252503609595107</v>
+        <v>2.232580586974871</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2218826356104003</v>
+        <v>0.1340186904858539</v>
       </c>
       <c r="C9">
-        <v>0.9820920796201497</v>
+        <v>0.9571447338883464</v>
       </c>
       <c r="D9">
-        <v>5.119605115971289</v>
+        <v>4.907955779113894</v>
       </c>
       <c r="E9">
-        <v>2.262654440247403</v>
+        <v>2.21539066060907</v>
       </c>
       <c r="F9">
-        <v>2.290243145950139</v>
+        <v>2.240240800137693</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2514602257437938</v>
+        <v>0.1600587551659434</v>
       </c>
       <c r="C10">
-        <v>1.021614200504279</v>
+        <v>0.9793142779403741</v>
       </c>
       <c r="D10">
-        <v>5.321885787980542</v>
+        <v>5.040124732968332</v>
       </c>
       <c r="E10">
-        <v>2.306921279103503</v>
+        <v>2.245022212132506</v>
       </c>
       <c r="F10">
-        <v>2.33376575473015</v>
+        <v>2.269368439699161</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2366041340794119</v>
+        <v>0.1574861501701002</v>
       </c>
       <c r="C11">
-        <v>1.012053285505367</v>
+        <v>0.9407490158730698</v>
       </c>
       <c r="D11">
-        <v>5.483661848752136</v>
+        <v>5.047038324643313</v>
       </c>
       <c r="E11">
-        <v>2.341721983659063</v>
+        <v>2.246561444662334</v>
       </c>
       <c r="F11">
-        <v>2.372489310826974</v>
+        <v>2.271946963475703</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1065348192791066</v>
+        <v>0.1429335285543671</v>
       </c>
       <c r="C7">
-        <v>0.929811024553358</v>
+        <v>1.020635186052919</v>
       </c>
       <c r="D7">
-        <v>4.72585632215702</v>
+        <v>5.36814301143687</v>
       </c>
       <c r="E7">
-        <v>2.173903475814191</v>
+        <v>2.316925335749271</v>
       </c>
       <c r="F7">
-        <v>2.198265070640741</v>
+        <v>2.345315505078564</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1420065762956791</v>
+        <v>0.1686795058388147</v>
       </c>
       <c r="C8">
-        <v>0.9765351640082575</v>
+        <v>1.086338906570454</v>
       </c>
       <c r="D8">
-        <v>4.879971543114854</v>
+        <v>5.567529296813674</v>
       </c>
       <c r="E8">
-        <v>2.209065762514745</v>
+        <v>2.359561250913753</v>
       </c>
       <c r="F8">
-        <v>2.232580586974871</v>
+        <v>2.38788411286034</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1340186904858539</v>
+        <v>0.04759320168798861</v>
       </c>
       <c r="C9">
-        <v>0.9571447338883464</v>
+        <v>1.466057361487795</v>
       </c>
       <c r="D9">
-        <v>4.907955779113894</v>
+        <v>8.975172192828293</v>
       </c>
       <c r="E9">
-        <v>2.21539066060907</v>
+        <v>2.995859174398605</v>
       </c>
       <c r="F9">
-        <v>2.240240800137693</v>
+        <v>3.073298772873998</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1600587551659434</v>
+        <v>-0.6842028199372995</v>
       </c>
       <c r="C10">
-        <v>0.9793142779403741</v>
+        <v>1.206520771940638</v>
       </c>
       <c r="D10">
-        <v>5.040124732968332</v>
+        <v>5.849818872833023</v>
       </c>
       <c r="E10">
-        <v>2.245022212132506</v>
+        <v>2.418639880766259</v>
       </c>
       <c r="F10">
-        <v>2.269368439699161</v>
+        <v>2.414572250977685</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1574861501701002</v>
+        <v>0.08624642082877883</v>
       </c>
       <c r="C11">
-        <v>0.9407490158730698</v>
+        <v>0.5880280703951859</v>
       </c>
       <c r="D11">
-        <v>5.047038324643313</v>
+        <v>0.4845231414041202</v>
       </c>
       <c r="E11">
-        <v>2.246561444662334</v>
+        <v>0.6960769651440279</v>
       </c>
       <c r="F11">
-        <v>2.271946963475703</v>
+        <v>0.772240811128842</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
